--- a/data/trans_orig/P62AS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF5DB69-57D7-4000-96D9-6FB977ECB677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A9B298-2FFD-4830-A023-6952D5959F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEBC31CA-372B-4510-BBDB-1C6CBCB247E2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02FBDFFF-A07D-4A00-9E50-2508E7D101F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -85,1708 +85,1705 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>17,22%</t>
+    <t>16,94%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>Invalidez o incapacidad permanente</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>Invalidez o incapacidad permanente</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
   </si>
   <si>
     <t>26,68%</t>
   </si>
   <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,12%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,62%</t>
+    <t>0,52%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
   </si>
   <si>
     <t>15,91%</t>
@@ -1795,31 +1792,34 @@
     <t>13,99%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>18,0%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>46,73%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8B4F14-2C00-4241-A47E-1CEF42BE1893}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA1E50C-B400-4149-9358-3B430064720F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2887,10 +2887,10 @@
         <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -3243,13 +3243,13 @@
         <v>58341</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -3258,13 +3258,13 @@
         <v>58341</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3279,13 @@
         <v>132818</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -3294,10 +3294,10 @@
         <v>44850</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>140</v>
@@ -3467,10 +3467,10 @@
         <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3500,13 +3500,13 @@
         <v>81304</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -3515,13 +3515,13 @@
         <v>81304</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3536,13 @@
         <v>171260</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H27" s="7">
         <v>70</v>
@@ -3551,13 +3551,13 @@
         <v>73597</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M27" s="7">
         <v>261</v>
@@ -3566,13 +3566,13 @@
         <v>244856</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3640,13 @@
         <v>6458</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3655,13 +3655,13 @@
         <v>27202</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3670,13 +3670,13 @@
         <v>33660</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3691,13 @@
         <v>72092</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -3706,10 +3706,10 @@
         <v>47411</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>191</v>
@@ -3906,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3091BC7-21CE-4BCB-8402-591C5AC34B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A40AF5-9B5E-4B11-831C-FF7F36C9490A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4030,13 +4030,13 @@
         <v>1786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4045,13 +4045,13 @@
         <v>1535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4060,13 +4060,13 @@
         <v>3321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4081,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4096,13 +4096,13 @@
         <v>2112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4111,13 +4111,13 @@
         <v>2925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4147,13 +4147,13 @@
         <v>11465</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4162,13 +4162,13 @@
         <v>11465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4183,13 @@
         <v>24716</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4198,13 +4198,13 @@
         <v>9382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -4213,13 +4213,13 @@
         <v>34098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4287,13 @@
         <v>11012</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4356,10 +4356,10 @@
         <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4368,13 +4368,13 @@
         <v>42590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4389,13 @@
         <v>2075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4404,13 +4404,13 @@
         <v>52558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4419,13 +4419,13 @@
         <v>54633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4440,13 @@
         <v>139837</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -4455,13 +4455,13 @@
         <v>60615</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -4470,13 +4470,13 @@
         <v>200453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4544,13 @@
         <v>22243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -4559,13 +4559,13 @@
         <v>29907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -4574,13 +4574,13 @@
         <v>52150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4595,13 @@
         <v>43050</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H15" s="7">
         <v>19</v>
@@ -4610,13 +4610,13 @@
         <v>21743</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -4625,13 +4625,13 @@
         <v>64794</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4646,13 @@
         <v>964</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4661,7 +4661,7 @@
         <v>82651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>296</v>
@@ -4682,7 +4682,7 @@
         <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4697,13 @@
         <v>179986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -4712,13 +4712,13 @@
         <v>75449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>230</v>
@@ -4727,13 +4727,13 @@
         <v>255435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,7 +4801,7 @@
         <v>11325</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>183</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>310</v>
@@ -4852,13 +4852,13 @@
         <v>33770</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -4867,13 +4867,13 @@
         <v>17614</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4882,10 +4882,10 @@
         <v>51384</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>325</v>
@@ -5064,7 +5064,7 @@
         <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -5073,13 +5073,13 @@
         <v>28869</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5088,13 +5088,13 @@
         <v>41774</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5109,13 @@
         <v>34093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5124,13 +5124,13 @@
         <v>24556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5139,13 +5139,13 @@
         <v>58649</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -5175,13 +5175,13 @@
         <v>91097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
@@ -5190,7 +5190,7 @@
         <v>91097</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>362</v>
+        <v>201</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>363</v>
@@ -5321,7 +5321,7 @@
         <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5330,13 +5330,13 @@
         <v>96076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="M29" s="7">
         <v>140</v>
@@ -5345,13 +5345,13 @@
         <v>155347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5366,13 @@
         <v>142949</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -5381,13 +5381,13 @@
         <v>77392</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M30" s="7">
         <v>197</v>
@@ -5396,13 +5396,13 @@
         <v>220341</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5417,13 @@
         <v>3039</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H31" s="7">
         <v>285</v>
@@ -5432,10 +5432,10 @@
         <v>306632</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>392</v>
@@ -5581,7 +5581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9513D2-DD5E-45CD-AFEA-7C23B12C0C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84ABDF2-DFE1-4886-B44B-ACBA135C81B5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5786,13 +5786,13 @@
         <v>5851</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5822,13 +5822,13 @@
         <v>6094</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5837,13 +5837,13 @@
         <v>6094</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5858,13 @@
         <v>24097</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5873,13 +5873,13 @@
         <v>9931</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -5888,13 +5888,13 @@
         <v>34028</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,10 +5962,10 @@
         <v>9956</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>436</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>437</v>
@@ -5992,13 +5992,13 @@
         <v>25876</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>355</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6013,13 @@
         <v>12014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6028,13 +6028,13 @@
         <v>9211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -6043,13 +6043,13 @@
         <v>21225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6070,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -6079,13 +6079,13 @@
         <v>45372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>453</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -6094,13 +6094,13 @@
         <v>45372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6115,13 @@
         <v>139252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -6130,13 +6130,13 @@
         <v>58604</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -6145,13 +6145,13 @@
         <v>197855</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6219,13 @@
         <v>18378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -6234,13 +6234,13 @@
         <v>29122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -6252,10 +6252,10 @@
         <v>315</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6270,13 @@
         <v>31201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -6285,13 +6285,13 @@
         <v>14272</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -6300,13 +6300,13 @@
         <v>45473</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>479</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6321,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -6336,13 +6336,13 @@
         <v>67196</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -6351,13 +6351,13 @@
         <v>68131</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6372,13 @@
         <v>214101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -6387,13 +6387,13 @@
         <v>93265</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
@@ -6402,13 +6402,13 @@
         <v>307366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,13 +6476,13 @@
         <v>11976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6491,13 +6491,13 @@
         <v>13515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -6509,10 +6509,10 @@
         <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>454</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6527,13 @@
         <v>14510</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6542,13 +6542,13 @@
         <v>11480</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6557,13 +6557,13 @@
         <v>25990</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -6593,13 +6593,13 @@
         <v>52883</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -6608,13 +6608,13 @@
         <v>52883</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6629,13 @@
         <v>155585</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6644,13 +6644,13 @@
         <v>57575</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -6659,13 +6659,13 @@
         <v>213160</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6733,13 @@
         <v>17912</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -6805,7 +6805,7 @@
         <v>540</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>541</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -6814,13 +6814,13 @@
         <v>42405</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6841,7 +6841,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -6850,13 +6850,13 @@
         <v>88115</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M26" s="7">
         <v>71</v>
@@ -6865,7 +6865,7 @@
         <v>88114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>503</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>549</v>
@@ -7008,10 +7008,10 @@
         <v>563</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M29" s="7">
         <v>154</v>
@@ -7020,13 +7020,13 @@
         <v>167759</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,13 +7041,13 @@
         <v>88308</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H30" s="7">
         <v>48</v>
@@ -7056,13 +7056,13 @@
         <v>52635</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M30" s="7">
         <v>128</v>
@@ -7071,13 +7071,13 @@
         <v>140943</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7092,13 @@
         <v>935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H31" s="7">
         <v>216</v>
@@ -7107,13 +7107,13 @@
         <v>259660</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M31" s="7">
         <v>217</v>
@@ -7122,13 +7122,13 @@
         <v>260594</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7143,13 @@
         <v>752619</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H32" s="7">
         <v>273</v>
@@ -7158,10 +7158,10 @@
         <v>316360</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>590</v>

--- a/data/trans_orig/P62AS1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P62AS1-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A9B298-2FFD-4830-A023-6952D5959F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C812D2D6-CA0B-44AE-A362-6DFCB74BB3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{02FBDFFF-A07D-4A00-9E50-2508E7D101F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6FA6210-B97A-4238-9FB5-C713C4F6E6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -85,1741 +85,1741 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>16,94%</t>
+    <t>21,98%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Invalidez o incapacidad permanente</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>Invalidez o incapacidad permanente</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2016 (Tasa respuesta: 23,41%)</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2012 (Tasa respuesta: 22,64%)</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de pensión que recibe / respuesta 1 en 2015 (Tasa respuesta: 23,41%)</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>8,51%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>17,49%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>7,14%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,52%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>83,51%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>42,92%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>65,25%</t>
   </si>
   <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA1E50C-B400-4149-9358-3B430064720F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F447E4-B676-4B14-A9EF-D64A5EB1046D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2887,10 +2887,10 @@
         <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -2899,13 +2899,13 @@
         <v>7086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2920,13 @@
         <v>20677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -2935,13 +2935,13 @@
         <v>15101</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
         <v>34</v>
@@ -2950,13 +2950,13 @@
         <v>35778</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>1061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -2986,13 +2986,13 @@
         <v>89711</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -3001,13 +3001,13 @@
         <v>90772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3022,13 @@
         <v>199897</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3037,13 +3037,13 @@
         <v>42372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
@@ -3052,13 +3052,13 @@
         <v>242269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3114,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3126,13 +3126,13 @@
         <v>1992</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -3141,13 +3141,13 @@
         <v>7775</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3156,13 +3156,13 @@
         <v>9766</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>19574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -3192,13 +3192,13 @@
         <v>8841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3207,13 +3207,13 @@
         <v>28415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
@@ -3243,13 +3243,13 @@
         <v>58341</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -3258,13 +3258,13 @@
         <v>58341</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3279,13 @@
         <v>132818</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -3294,13 +3294,13 @@
         <v>44850</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>176</v>
@@ -3309,13 +3309,13 @@
         <v>177668</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,7 +3371,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3383,13 +3383,13 @@
         <v>2598</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -3398,13 +3398,13 @@
         <v>8329</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -3413,13 +3413,13 @@
         <v>10927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>16002</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -3449,13 +3449,13 @@
         <v>13018</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -3464,13 +3464,13 @@
         <v>29020</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>75</v>
@@ -3500,13 +3500,13 @@
         <v>81304</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -3515,13 +3515,13 @@
         <v>81304</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3536,13 @@
         <v>171260</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H27" s="7">
         <v>70</v>
@@ -3551,13 +3551,13 @@
         <v>73597</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M27" s="7">
         <v>261</v>
@@ -3566,13 +3566,13 @@
         <v>244856</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3640,13 @@
         <v>6458</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>26</v>
@@ -3655,13 +3655,13 @@
         <v>27202</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3670,13 +3670,13 @@
         <v>33660</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3691,13 @@
         <v>72092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -3706,13 +3706,13 @@
         <v>47411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>116</v>
@@ -3721,13 +3721,13 @@
         <v>119503</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3742,13 @@
         <v>2025</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
         <v>267</v>
@@ -3757,13 +3757,13 @@
         <v>280443</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>269</v>
@@ -3772,13 +3772,13 @@
         <v>282468</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3793,13 @@
         <v>657299</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H32" s="7">
         <v>217</v>
@@ -3808,13 +3808,13 @@
         <v>221030</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M32" s="7">
         <v>895</v>
@@ -3823,13 +3823,13 @@
         <v>878329</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3885,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3906,7 +3906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A40AF5-9B5E-4B11-831C-FF7F36C9490A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A6AC57-CBB5-40A9-BDF7-CD8F8D9811FD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3923,7 +3923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4030,13 +4030,13 @@
         <v>1786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4045,13 +4045,13 @@
         <v>1535</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -4060,13 +4060,13 @@
         <v>3321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4081,13 @@
         <v>813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4096,13 +4096,13 @@
         <v>2112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4111,13 +4111,13 @@
         <v>2925</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,7 +4138,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -4147,13 +4147,13 @@
         <v>11465</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -4162,13 +4162,13 @@
         <v>11465</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4183,13 @@
         <v>24716</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4198,13 +4198,13 @@
         <v>9382</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -4213,13 +4213,13 @@
         <v>34098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4287,13 @@
         <v>11012</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4302,13 +4302,13 @@
         <v>14992</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -4317,13 +4317,13 @@
         <v>26004</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4338,13 @@
         <v>31223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -4353,13 +4353,13 @@
         <v>11366</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -4368,13 +4368,13 @@
         <v>42590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>85</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4389,13 @@
         <v>2075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -4404,13 +4404,13 @@
         <v>52558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>51</v>
@@ -4419,13 +4419,13 @@
         <v>54633</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4440,13 @@
         <v>139837</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H12" s="7">
         <v>58</v>
@@ -4455,13 +4455,13 @@
         <v>60615</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M12" s="7">
         <v>184</v>
@@ -4470,13 +4470,13 @@
         <v>200453</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4544,13 @@
         <v>22243</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -4559,13 +4559,13 @@
         <v>29907</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -4574,13 +4574,13 @@
         <v>52150</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4595,7 @@
         <v>43050</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>286</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>287</v>
@@ -4613,10 +4613,10 @@
         <v>289</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M15" s="7">
         <v>60</v>
@@ -4625,13 +4625,13 @@
         <v>64794</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4646,13 @@
         <v>964</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>76</v>
@@ -4661,13 +4661,13 @@
         <v>82651</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4676,13 +4676,13 @@
         <v>83614</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4697,13 @@
         <v>179986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>69</v>
@@ -4712,13 +4712,13 @@
         <v>75449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>230</v>
@@ -4727,13 +4727,13 @@
         <v>255435</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,7 +4789,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4801,13 +4801,13 @@
         <v>11325</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>183</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -4816,13 +4816,13 @@
         <v>20773</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -4831,13 +4831,13 @@
         <v>32098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4852,13 @@
         <v>33770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -4867,13 +4867,13 @@
         <v>17614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -4882,13 +4882,13 @@
         <v>51384</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4909,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -4918,13 +4918,13 @@
         <v>68862</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -4933,13 +4933,13 @@
         <v>68862</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4954,13 @@
         <v>123645</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -4969,13 +4969,13 @@
         <v>40624</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -4984,13 +4984,13 @@
         <v>164269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5046,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5058,13 +5058,13 @@
         <v>12905</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -5073,13 +5073,13 @@
         <v>28869</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -5088,13 +5088,13 @@
         <v>41774</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5109,13 @@
         <v>34093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -5124,13 +5124,13 @@
         <v>24556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5139,13 +5139,13 @@
         <v>58649</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5166,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -5175,13 +5175,13 @@
         <v>91097</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M26" s="7">
         <v>87</v>
@@ -5190,13 +5190,13 @@
         <v>91097</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>367</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5211,13 @@
         <v>197673</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H27" s="7">
         <v>73</v>
@@ -5226,13 +5226,13 @@
         <v>79915</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M27" s="7">
         <v>254</v>
@@ -5241,13 +5241,13 @@
         <v>277588</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5315,13 @@
         <v>59271</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>121</v>
+        <v>381</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5330,13 +5330,13 @@
         <v>96076</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="M29" s="7">
         <v>140</v>
@@ -5345,13 +5345,13 @@
         <v>155347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5366,13 @@
         <v>142949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="H30" s="7">
         <v>68</v>
@@ -5384,10 +5384,10 @@
         <v>289</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M30" s="7">
         <v>197</v>
@@ -5396,13 +5396,13 @@
         <v>220341</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5417,13 @@
         <v>3039</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H31" s="7">
         <v>285</v>
@@ -5432,13 +5432,13 @@
         <v>306632</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="M31" s="7">
         <v>287</v>
@@ -5447,13 +5447,13 @@
         <v>309671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,13 +5468,13 @@
         <v>665857</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="H32" s="7">
         <v>246</v>
@@ -5483,13 +5483,13 @@
         <v>265986</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M32" s="7">
         <v>849</v>
@@ -5498,13 +5498,13 @@
         <v>931843</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +5560,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +5581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84ABDF2-DFE1-4886-B44B-ACBA135C81B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EB43C2-18DF-43A4-BFBA-01FF2B33895B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5598,7 +5598,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5705,13 +5705,13 @@
         <v>1149</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>204</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5720,13 +5720,13 @@
         <v>1164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -5735,13 +5735,13 @@
         <v>2313</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>411</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,13 +5756,13 @@
         <v>3025</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>247</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5771,13 +5771,13 @@
         <v>2825</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5786,13 +5786,13 @@
         <v>5851</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>423</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,7 +5813,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5822,13 +5822,13 @@
         <v>6094</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>422</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5837,13 +5837,13 @@
         <v>6094</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>424</v>
+        <v>67</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5858,13 @@
         <v>24097</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -5873,13 +5873,13 @@
         <v>9931</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -5888,13 +5888,13 @@
         <v>34028</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5962,13 @@
         <v>9956</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -5977,13 +5977,13 @@
         <v>15920</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M9" s="7">
         <v>24</v>
@@ -5992,13 +5992,13 @@
         <v>25876</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6013,13 +6013,13 @@
         <v>12014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>445</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6028,13 +6028,13 @@
         <v>9211</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -6043,13 +6043,13 @@
         <v>21225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,7 +6070,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -6079,13 +6079,13 @@
         <v>45372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M11" s="7">
         <v>40</v>
@@ -6094,13 +6094,13 @@
         <v>45372</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6115,13 @@
         <v>139252</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="H12" s="7">
         <v>53</v>
@@ -6130,13 +6130,13 @@
         <v>58604</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="M12" s="7">
         <v>198</v>
@@ -6145,13 +6145,13 @@
         <v>197855</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,13 +6219,13 @@
         <v>18378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>26</v>
@@ -6234,13 +6234,13 @@
         <v>29122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -6249,13 +6249,13 @@
         <v>47500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6270,13 @@
         <v>31201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>386</v>
+        <v>479</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>475</v>
+        <v>391</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H15" s="7">
         <v>14</v>
@@ -6285,13 +6285,13 @@
         <v>14272</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -6300,13 +6300,13 @@
         <v>45473</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>48</v>
+        <v>484</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>123</v>
+        <v>485</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6321,13 @@
         <v>935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -6336,13 +6336,13 @@
         <v>67196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -6351,13 +6351,13 @@
         <v>68131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>485</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>486</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6372,13 @@
         <v>214101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -6387,13 +6387,13 @@
         <v>93265</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>295</v>
@@ -6402,13 +6402,13 @@
         <v>307366</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>428</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,7 +6464,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6476,13 @@
         <v>11976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6491,13 +6491,13 @@
         <v>13515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>500</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -6506,13 +6506,13 @@
         <v>25492</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6527,13 @@
         <v>14510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -6542,13 +6542,13 @@
         <v>11480</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -6557,13 +6557,13 @@
         <v>25990</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,7 +6584,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="H21" s="7">
         <v>43</v>
@@ -6593,13 +6593,13 @@
         <v>52883</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -6608,13 +6608,13 @@
         <v>52883</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>516</v>
+        <v>191</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6629,13 @@
         <v>155585</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6644,13 +6644,13 @@
         <v>57575</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>198</v>
@@ -6659,13 +6659,13 @@
         <v>213160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,7 +6721,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6733,13 +6733,13 @@
         <v>17912</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>529</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>44</v>
@@ -6748,13 +6748,13 @@
         <v>48666</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
         <v>61</v>
@@ -6763,13 +6763,13 @@
         <v>66578</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>533</v>
+        <v>269</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6784,13 @@
         <v>27557</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6799,13 +6799,13 @@
         <v>14847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>535</v>
       </c>
       <c r="M25" s="7">
         <v>38</v>
@@ -6814,10 +6814,10 @@
         <v>42405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>542</v>
+        <v>415</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>543</v>
@@ -6904,10 +6904,10 @@
         <v>554</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M27" s="7">
         <v>312</v>
@@ -6916,13 +6916,13 @@
         <v>316570</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6990,13 @@
         <v>59372</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H29" s="7">
         <v>99</v>
@@ -7005,10 +7005,10 @@
         <v>108387</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>564</v>
@@ -7235,7 +7235,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
